--- a/backlog.xlsx
+++ b/backlog.xlsx
@@ -4,11 +4,38 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="500"/>
+    <workbookView xWindow="40" yWindow="0" windowWidth="28720" windowHeight="17560" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Backlogs" sheetId="2" r:id="rId1"/>
+    <sheet name="PB Burndown" sheetId="3" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="AverageSpeedLastEight">OFFSET('PB Burndown'!$P$27,1,0,'PB Burndown'!$G$3,1)</definedName>
+    <definedName name="AverageSpeedRealized">OFFSET('PB Burndown'!$O$27,1,0,'PB Burndown'!$G$3,1)</definedName>
+    <definedName name="AverageSpeedWorstThree">OFFSET('PB Burndown'!$Q$27,1,0,'PB Burndown'!$G$3,1)</definedName>
+    <definedName name="ColBottomCurrentScope">OFFSET('PB Burndown'!$I$27,1,0,'PB Burndown'!$G$3,1)</definedName>
+    <definedName name="ColTopRemainingWork">OFFSET('PB Burndown'!$F$27,1,0,'PB Burndown'!$G$3,1)</definedName>
+    <definedName name="DoneDays">#REF!</definedName>
+    <definedName name="ImplementationDays">#REF!</definedName>
+    <definedName name="LastEight">IF('PB Burndown'!$G$4&gt;8,OFFSET('PB Burndown'!$D$27,'PB Burndown'!$G$4-7,0,8,1),OFFSET('PB Burndown'!$D$27,1,0,'PB Burndown'!$G$4-1,1))</definedName>
+    <definedName name="LastPlanned">IF(OFFSET('PB Burndown'!$B$27,1,0,1,1)="",1,OFFSET('PB Burndown'!$B$27,'PB Burndown'!$G$3,0,1,1))</definedName>
+    <definedName name="LastRealized">IF(OFFSET('PB Burndown'!$D$27,1,0,1,1)="",1,OFFSET('PB Burndown'!$D$27,'PB Burndown'!$G$3,0,1,1))</definedName>
+    <definedName name="PBCurrentBottom">OFFSET('PB Burndown'!$N$27,1,0,'PB Burndown'!$G$9,1)</definedName>
+    <definedName name="PBTrend">OFFSET('PB Burndown'!$M$27,1,0,'PB Burndown'!$G$9,1)</definedName>
+    <definedName name="PlannedSpeed">OFFSET('PB Burndown'!$C$27,1,0,'PB Burndown'!$G$3,1)</definedName>
+    <definedName name="RealizedSpeed">OFFSET('PB Burndown'!$D$27,1,0,'PB Burndown'!$G$3,1)</definedName>
+    <definedName name="SprintCount">'PB Burndown'!$G$3</definedName>
+    <definedName name="SprintsInTrend">'PB Burndown'!$G$6</definedName>
+    <definedName name="TaskRows">#REF!</definedName>
+    <definedName name="TotalEffort">#REF!</definedName>
+    <definedName name="TrendDays">'[1]Sprint Sheet Template'!$D$13</definedName>
+    <definedName name="TrendOffset">'PB Burndown'!$G$5</definedName>
+    <definedName name="TrendSprintCount">'PB Burndown'!$G$4</definedName>
+  </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -18,8 +45,57 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Petri Heiramo</author>
+  </authors>
+  <commentList>
+    <comment ref="B15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Average estimate * 0,6</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Average estimate * 1,6</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>As of latest Product Backlog estimate</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="76">
   <si>
     <t>Product backlog</t>
   </si>
@@ -99,9 +175,6 @@
     <t>Erdi</t>
   </si>
   <si>
-    <t>Users can connect a server and play the game with other players</t>
-  </si>
-  <si>
     <t>Deniz</t>
   </si>
   <si>
@@ -115,13 +188,152 @@
   </si>
   <si>
     <t>Emre</t>
+  </si>
+  <si>
+    <t>Completed work (man*hour)</t>
+  </si>
+  <si>
+    <t>Product Backlog Burndown Chart</t>
+  </si>
+  <si>
+    <t>Original planned size</t>
+  </si>
+  <si>
+    <t>Sprint count</t>
+  </si>
+  <si>
+    <t>Count trend from last</t>
+  </si>
+  <si>
+    <t>sprints</t>
+  </si>
+  <si>
+    <t>Trend sprint count</t>
+  </si>
+  <si>
+    <t>Trend offset</t>
+  </si>
+  <si>
+    <t>Velocity (points per sprint)</t>
+  </si>
+  <si>
+    <t>Sprints in Trend</t>
+  </si>
+  <si>
+    <t>Original estimate</t>
+  </si>
+  <si>
+    <t>Realized total average</t>
+  </si>
+  <si>
+    <t>Trend count</t>
+  </si>
+  <si>
+    <t>Average last 8</t>
+  </si>
+  <si>
+    <t>Avg. worst 3 in last 8</t>
+  </si>
+  <si>
+    <t>Trend</t>
+  </si>
+  <si>
+    <t>These hidden cells are used to draw the graph on this page. DO NOT DELETE!</t>
+  </si>
+  <si>
+    <t>Predictions - Completion at the end of sprint…</t>
+  </si>
+  <si>
+    <t>Original estimate - Min</t>
+  </si>
+  <si>
+    <t>Original estimate - Avg</t>
+  </si>
+  <si>
+    <t>Original estimate - Max</t>
+  </si>
+  <si>
+    <t>Standard Dev.</t>
+  </si>
+  <si>
+    <t>Realized average</t>
+  </si>
+  <si>
+    <t>LastPlanned</t>
+  </si>
+  <si>
+    <t>LastRealized</t>
+  </si>
+  <si>
+    <t>Realized + St. Dev</t>
+  </si>
+  <si>
+    <t>Realized - St. Dev</t>
+  </si>
+  <si>
+    <t>Average Speeds</t>
+  </si>
+  <si>
+    <t>Sprint</t>
+  </si>
+  <si>
+    <t>Remain.Work</t>
+  </si>
+  <si>
+    <t>Planned Work</t>
+  </si>
+  <si>
+    <t>Realized Work</t>
+  </si>
+  <si>
+    <t>Current Total Size</t>
+  </si>
+  <si>
+    <t>Col top</t>
+  </si>
+  <si>
+    <t>Do not delete…</t>
+  </si>
+  <si>
+    <t>Col bottom</t>
+  </si>
+  <si>
+    <t>Trend Help</t>
+  </si>
+  <si>
+    <t>Raw Trend</t>
+  </si>
+  <si>
+    <t>Real Trend</t>
+  </si>
+  <si>
+    <t>Current Bottom</t>
+  </si>
+  <si>
+    <t>Realized</t>
+  </si>
+  <si>
+    <t>Last 8</t>
+  </si>
+  <si>
+    <t>Worst 3 in Last 8</t>
+  </si>
+  <si>
+    <t>Users can play the game as a multiplayer online game</t>
+  </si>
+  <si>
+    <t>Total work</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="&quot;Last &quot;###&quot; sprints&quot;"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -153,16 +365,68 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -170,8 +434,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="101">
+  <cellStyleXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -273,19 +546,85 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="105" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="105"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="105" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="105" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="105" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="105" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="105" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="105" applyFont="1"/>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="105" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="105" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="105" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="105" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="105" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="105" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="105" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="105" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="105" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="105" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="105" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="105" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="105" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="101">
+  <cellStyles count="122">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -336,6 +675,16 @@
     <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -386,11 +735,1115 @@
     <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="106" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="112" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="116" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="118" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="120" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="105"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor indexed="10"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Verdana"/>
+                <a:ea typeface="Verdana"/>
+                <a:cs typeface="Verdana"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Velocity and Remaining Work</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.243176031342064"/>
+          <c:y val="0.0179372000932769"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0843671945472466"/>
+          <c:y val="0.121076100629619"/>
+          <c:w val="0.890818318895928"/>
+          <c:h val="0.775783904034228"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Remaining Work</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'PB Burndown'!$F$28:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>88.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'PB Burndown'!$F$28:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>88.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Current bottom</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="DD0806"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'PB Burndown'!$N$28:$N$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.5527136788005E-15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5527136788005E-15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5527136788005E-15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5527136788005E-15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'PB Burndown'!$I$28:$I$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5527136788005E-15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Trend</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:srgbClr val="800080"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4600A5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="4600A5"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'PB Burndown'!$M$28:$M$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>88.00000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49.60000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.40000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Current Scope</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'PB Burndown'!$I$28:$I$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5527136788005E-15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:upDownBars>
+          <c:gapWidth val="30"/>
+          <c:upBars>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:upBars>
+          <c:downBars>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="9999FF"/>
+              </a:solidFill>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:downBars>
+        </c:upDownBars>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2074524488"/>
+        <c:axId val="-2074521240"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2074524488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2074521240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="200"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2074521240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2074524488"/>
+        <c:crossesAt val="1.0"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="C0C0C0"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="808080"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="0"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="3175">
+      <a:solidFill>
+        <a:srgbClr val="000000"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Arial"/>
+          <a:ea typeface="Arial"/>
+          <a:cs typeface="Arial"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Verdana"/>
+                <a:ea typeface="Verdana"/>
+                <a:cs typeface="Verdana"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Development Velocity</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.305210733215039"/>
+          <c:y val="0.0365853476992487"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0843671945472466"/>
+          <c:y val="0.130081236263995"/>
+          <c:w val="0.888336930821009"/>
+          <c:h val="0.654471219953226"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Planned Speed</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'PB Burndown'!$C$28:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>24.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Realized Speed</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="9999FF"/>
+            </a:solidFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'PB Burndown'!$D$28:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>19.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="50"/>
+        <c:axId val="-2074488600"/>
+        <c:axId val="-2044213800"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Average Realized</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:srgbClr val="DD0806"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'PB Burndown'!$O$28:$O$31</c:f>
+              <c:numCache>
+                <c:formatCode>#,#00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Avg. Last 8</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:srgbClr val="006411"/>
+              </a:solidFill>
+              <a:prstDash val="lgDashDotDot"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'PB Burndown'!$P$28:$P$31</c:f>
+              <c:numCache>
+                <c:formatCode>#,#00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Avg. Worst 3 in Last 8</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:solidFill>
+                <a:srgbClr val="0000D4"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'PB Burndown'!$Q$28:$Q$31</c:f>
+              <c:numCache>
+                <c:formatCode>#,#00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2074488600"/>
+        <c:axId val="-2044213800"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2074488600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2044213800"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2044213800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2074488600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="C0C0C0"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="808080"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.114143851446275"/>
+          <c:y val="0.865853228882219"/>
+          <c:w val="0.771711691299815"/>
+          <c:h val="0.113821081730996"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="735" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="0"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="3175">
+      <a:solidFill>
+        <a:srgbClr val="000000"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Arial"/>
+          <a:ea typeface="Arial"/>
+          <a:cs typeface="Arial"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 17"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Release Plan"/>
+      <sheetName val="Product Backlog"/>
+      <sheetName val="PB Burndown"/>
+      <sheetName val="Sp1"/>
+      <sheetName val="Sprint Sheet Template"/>
+      <sheetName val="Task Slips"/>
+    </sheetNames>
+    <definedNames>
+      <definedName name="AverageSpeedLastEight" refersTo="#REF!"/>
+      <definedName name="AverageSpeedRealized" refersTo="#REF!"/>
+      <definedName name="AverageSpeedWorstThree" refersTo="#REF!"/>
+      <definedName name="ColBottomCurrentScope" refersTo="#REF!"/>
+      <definedName name="ColTopRemainingWork" refersTo="#REF!"/>
+      <definedName name="PBCurrentBottom" refersTo="#REF!"/>
+      <definedName name="PBTrend" refersTo="#REF!"/>
+      <definedName name="PlannedSpeed" refersTo="#REF!"/>
+      <definedName name="RealizedSpeed" refersTo="#REF!"/>
+    </definedNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4">
+        <row r="13">
+          <cell r="D13">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -715,17 +2168,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.1640625" bestFit="1" customWidth="1"/>
@@ -737,10 +2190,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="4"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -790,14 +2243,14 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>26</v>
+      <c r="B3" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="C3">
         <v>5</v>
       </c>
       <c r="D3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -806,19 +2259,19 @@
         <f>A3</f>
         <v>1</v>
       </c>
-      <c r="H3" s="4" t="str">
+      <c r="H3" s="3" t="str">
         <f>B3</f>
-        <v>Users can connect a server and play the game with other players</v>
+        <v>Users can play the game as a multiplayer online game</v>
       </c>
       <c r="I3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J3">
         <f>D3</f>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K3">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -826,31 +2279,31 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4">
         <v>5</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="G4">
-        <v>10</v>
+      <c r="G4" s="2">
+        <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K4">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -869,20 +2322,20 @@
       <c r="E5" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="2">
-        <v>11</v>
+      <c r="G5">
+        <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J5">
         <v>6</v>
       </c>
       <c r="K5">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -902,19 +2355,19 @@
         <v>9</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" t="s">
         <v>30</v>
       </c>
-      <c r="I6" t="s">
-        <v>27</v>
-      </c>
       <c r="J6">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K6">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -934,19 +2387,19 @@
         <v>9</v>
       </c>
       <c r="G7">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K7">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -966,19 +2419,19 @@
         <v>9</v>
       </c>
       <c r="G8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J8">
         <v>4</v>
       </c>
       <c r="K8">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -997,21 +2450,6 @@
       <c r="E9" t="s">
         <v>9</v>
       </c>
-      <c r="G9">
-        <v>8</v>
-      </c>
-      <c r="H9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9">
-        <v>4</v>
-      </c>
-      <c r="K9">
-        <v>20</v>
-      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2">
@@ -1063,13 +2501,21 @@
       <c r="E12" t="s">
         <v>9</v>
       </c>
+      <c r="I12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="K12">
+        <f>SUM(J3:J8)</f>
+        <v>34</v>
+      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -1079,6 +2525,14 @@
       </c>
       <c r="E13" t="s">
         <v>9</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="K13">
+        <f>SUMPRODUCT(J3:J8,K3:K8)/100</f>
+        <v>19.2</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1200,9 +2654,20 @@
         <v>9</v>
       </c>
     </row>
+    <row r="23" spans="1:5">
+      <c r="C23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23">
+        <f>SUM(D3:D20)</f>
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I12:J12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -1212,4 +2677,1217 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:Z51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="11.83203125" style="6" customWidth="1"/>
+    <col min="2" max="4" width="8.83203125" style="6"/>
+    <col min="5" max="5" width="14.5" style="6" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="6" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="5.5" style="6" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" style="6" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="4.33203125" style="6" hidden="1" customWidth="1"/>
+    <col min="11" max="13" width="6.83203125" style="6" hidden="1" customWidth="1"/>
+    <col min="14" max="16" width="9.1640625" style="6" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5" style="6" hidden="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.83203125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="17">
+      <c r="A1" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="A3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="6">
+        <v>88</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="7">
+        <f>IF(COUNT(B28:B31)=0,1,COUNT(B28:B31))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="6">
+        <v>3</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="7">
+        <f>IF(COUNT(D28:D31)=0,1,COUNT(D28:D31)+1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="F5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="7">
+        <f>IF(G4&gt;D4,G4-D4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="8"/>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="7">
+        <f>TrendSprintCount-TrendOffset</f>
+        <v>2</v>
+      </c>
+      <c r="Z6" s="8"/>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="A7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="6">
+        <v>30</v>
+      </c>
+      <c r="Z7" s="8"/>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8" s="10">
+        <f>D$4</f>
+        <v>3</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="D8" s="11">
+        <f ca="1">IF(D28="","",AVERAGE(OFFSET(D27,TrendOffset,0,SprintsInTrend,1)))</f>
+        <v>19.2</v>
+      </c>
+      <c r="Z8" s="8"/>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="A9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="11">
+        <f ca="1">IF(D28="","",AVERAGE(OFFSET(D27,1,0,SprintCount,1)))</f>
+        <v>19.2</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="7">
+        <f ca="1">IF(M28="",1,COUNT(M28:M110))</f>
+        <v>4</v>
+      </c>
+      <c r="Z9" s="8"/>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="11">
+        <f ca="1">IF(D28="","",AVERAGE(LastEight))</f>
+        <v>19.2</v>
+      </c>
+      <c r="Z10" s="8"/>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="11">
+        <f ca="1">IF(D28="","",IF(TrendSprintCount&lt;4,D10,AVERAGE(SMALL(LastEight,1),SMALL(LastEight,2),SMALL(LastEight,3))))</f>
+        <v>19.2</v>
+      </c>
+      <c r="Z11" s="8"/>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="11">
+        <f ca="1">IF(M29="","",M28-M29)</f>
+        <v>19.200000000000003</v>
+      </c>
+      <c r="Z12" s="8"/>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="F13" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z13" s="8"/>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="13">
+        <f>IF(D7="",0,ROUNDUP(D3/D7*0.6,0))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="13">
+        <f>IF(D7="",0,ROUNDUP(D3/D7,0))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="13">
+        <f>IF(D7="",0,ROUNDUP(D3/D7*1.6,0))</f>
+        <v>5</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="6">
+        <f>IF(OR(D28="",D29=""),1,STDEV(D28:D31))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="10">
+        <f>D$4</f>
+        <v>3</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="D18" s="13">
+        <f ca="1">IF(D8="","",IF(LastRealized="",ROUNDUP(LastPlanned/D8,0)+SprintCount-1,ROUNDUP((LastPlanned-LastRealized)/D8+SprintCount,0)))</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="13">
+        <f ca="1">IF(D9="","",IF(LastRealized="",ROUNDUP(LastPlanned/D9+SprintCount-1,0),ROUNDUP((LastPlanned-LastRealized)/D9,0)+SprintCount))</f>
+        <v>7</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="6">
+        <f ca="1">LastPlanned</f>
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="13">
+        <f ca="1">IF(D10="","",IF(LastRealized="",ROUNDUP(LastPlanned/D10+SprintCount-1,0),ROUNDUP((LastPlanned-LastRealized)/D10,0)+SprintCount))</f>
+        <v>7</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="6">
+        <f ca="1">LastRealized</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="13">
+        <f ca="1">IF(D11="","",IF(LastRealized="",ROUNDUP(LastPlanned/D11+SprintCount-1,0),ROUNDUP((LastPlanned-LastRealized)/D11,0)+SprintCount))</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="13">
+        <f ca="1">IF(D9="","",IF(LastRealized="",ROUNDUP(LastPlanned/(D9+G17)+SprintCount-1,0),ROUNDUP((LastPlanned-LastRealized)/(D9+G17)+SprintCount,0)))</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="13">
+        <f ca="1">IF(D9="","",IF(LastRealized="",ROUNDUP(LastPlanned/(D9-G17)+SprintCount-1,0),ROUNDUP((LastPlanned-LastRealized)/(D9-G17)+SprintCount,0)))</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="12.75" customHeight="1">
+      <c r="F26" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+    </row>
+    <row r="27" spans="1:17" s="22" customFormat="1" ht="25" thickBot="1">
+      <c r="A27" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="H27" s="19"/>
+      <c r="I27" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="J27" s="20"/>
+      <c r="K27" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="L27" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="M27" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="N27" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="O27" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="P27" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q27" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="23">
+        <v>1</v>
+      </c>
+      <c r="B28" s="24">
+        <f>D3</f>
+        <v>88</v>
+      </c>
+      <c r="C28" s="24">
+        <v>24</v>
+      </c>
+      <c r="D28" s="24">
+        <v>19.2</v>
+      </c>
+      <c r="E28" s="23">
+        <f>B28</f>
+        <v>88</v>
+      </c>
+      <c r="F28" s="7">
+        <f>B28</f>
+        <v>88</v>
+      </c>
+      <c r="G28" s="7">
+        <f t="shared" ref="B28:G51" si="0">F28</f>
+        <v>88</v>
+      </c>
+      <c r="H28" s="7">
+        <f t="shared" ref="C28:H51" si="1">I28</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="K28" s="6">
+        <f t="shared" ref="F28:K51" si="2">IF(F28&lt;I28,I28,F28)</f>
+        <v>88</v>
+      </c>
+      <c r="L28" s="7">
+        <f t="shared" ref="L28:L31" ca="1" si="3">IF(TREND(OFFSET($K$27,TrendOffset+1,0,SprintsInTrend,1),OFFSET($A$27,TrendOffset+1,0,SprintsInTrend,1),A28)&lt;N28,N28,TREND(OFFSET($K$27,TrendOffset+1,0,SprintsInTrend,1),OFFSET($A$27,TrendOffset+1,0,SprintsInTrend,1),A28))</f>
+        <v>88.000000000000014</v>
+      </c>
+      <c r="M28" s="7">
+        <f ca="1">L28</f>
+        <v>88.000000000000014</v>
+      </c>
+      <c r="N28" s="7">
+        <f t="shared" ref="I28:N51" ca="1" si="4">OFFSET($I$27,TrendSprintCount,0,1,1)</f>
+        <v>3.5527136788005009E-15</v>
+      </c>
+      <c r="O28" s="25">
+        <f t="shared" ref="O28:O31" ca="1" si="5">D$9</f>
+        <v>19.2</v>
+      </c>
+      <c r="P28" s="25">
+        <f t="shared" ref="P28:P31" ca="1" si="6">D$10</f>
+        <v>19.2</v>
+      </c>
+      <c r="Q28" s="25">
+        <f t="shared" ref="Q28:Q31" ca="1" si="7">D$11</f>
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="23">
+        <v>2</v>
+      </c>
+      <c r="B29" s="24">
+        <f>B28-D28</f>
+        <v>68.8</v>
+      </c>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="23">
+        <f>IF(B29="","",IF(D28="",E28,B29+SUM(D$28:D28)))</f>
+        <v>88</v>
+      </c>
+      <c r="F29" s="7">
+        <f t="shared" ref="F29:F31" si="8">IF(B29="",IF(B28="","",IF(D28="","",I28)),IF(AND(D28="",C28=""),"",IF(AND(D28="",C28&lt;&gt;""),IF(I28&gt;F28,F28,I28),F28-D28)))</f>
+        <v>68.8</v>
+      </c>
+      <c r="G29" s="7">
+        <f t="shared" si="0"/>
+        <v>68.8</v>
+      </c>
+      <c r="H29" s="7">
+        <f t="shared" si="1"/>
+        <v>3.5527136788005009E-15</v>
+      </c>
+      <c r="I29" s="7">
+        <f>IF(B29="",IF(B28="","",IF(D28="","",F28-D28)),IF(AND(C28="",D28=""),"",IF(AND(D28="",C28&lt;&gt;""),IF(I28&gt;F28,I28-C28,F28-C28),B$28-B29-SUM(D$28:D28))))</f>
+        <v>3.5527136788005009E-15</v>
+      </c>
+      <c r="K29" s="6">
+        <f t="shared" si="2"/>
+        <v>68.8</v>
+      </c>
+      <c r="L29" s="7">
+        <f t="shared" ca="1" si="3"/>
+        <v>68.800000000000011</v>
+      </c>
+      <c r="M29" s="7">
+        <f ca="1">IF(L29=L28,"",L29)</f>
+        <v>68.800000000000011</v>
+      </c>
+      <c r="N29" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.5527136788005009E-15</v>
+      </c>
+      <c r="O29" s="25">
+        <f t="shared" ca="1" si="5"/>
+        <v>19.2</v>
+      </c>
+      <c r="P29" s="25">
+        <f t="shared" ca="1" si="6"/>
+        <v>19.2</v>
+      </c>
+      <c r="Q29" s="25">
+        <f t="shared" ca="1" si="7"/>
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="23">
+        <v>3</v>
+      </c>
+      <c r="B30" s="24">
+        <f>B29-D29</f>
+        <v>68.8</v>
+      </c>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="23">
+        <f>IF(B30="","",IF(D29="",E29,B30+SUM(D$28:D29)))</f>
+        <v>88</v>
+      </c>
+      <c r="F30" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="G30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H30" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I30" s="7" t="str">
+        <f>IF(B30="",IF(B29="","",IF(D29="","",F29-D29)),IF(AND(C29="",D29=""),"",IF(AND(D29="",C29&lt;&gt;""),IF(I29&gt;F29,I29-C29,F29-C29),B$28-B30-SUM(D$28:D29))))</f>
+        <v/>
+      </c>
+      <c r="K30" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L30" s="7">
+        <f t="shared" ca="1" si="3"/>
+        <v>49.600000000000009</v>
+      </c>
+      <c r="M30" s="7">
+        <f t="shared" ref="H30:M51" ca="1" si="9">IF(L30=L29,"",L30)</f>
+        <v>49.600000000000009</v>
+      </c>
+      <c r="N30" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.5527136788005009E-15</v>
+      </c>
+      <c r="O30" s="25">
+        <f t="shared" ca="1" si="5"/>
+        <v>19.2</v>
+      </c>
+      <c r="P30" s="25">
+        <f t="shared" ca="1" si="6"/>
+        <v>19.2</v>
+      </c>
+      <c r="Q30" s="25">
+        <f t="shared" ca="1" si="7"/>
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="23">
+        <v>4</v>
+      </c>
+      <c r="B31" s="24">
+        <f>B30-D30</f>
+        <v>68.8</v>
+      </c>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="23">
+        <f>IF(B31="","",IF(D30="",E30,B31+SUM(D$28:D30)))</f>
+        <v>88</v>
+      </c>
+      <c r="F31" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="G31" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H31" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I31" s="7" t="str">
+        <f>IF(B31="",IF(B30="","",IF(D30="","",F30-D30)),IF(AND(C30="",D30=""),"",IF(AND(D30="",C30&lt;&gt;""),IF(I30&gt;F30,I30-C30,F30-C30),B$28-B31-SUM(D$28:D30))))</f>
+        <v/>
+      </c>
+      <c r="K31" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L31" s="7">
+        <f t="shared" ca="1" si="3"/>
+        <v>30.400000000000006</v>
+      </c>
+      <c r="M31" s="7">
+        <f t="shared" ca="1" si="9"/>
+        <v>30.400000000000006</v>
+      </c>
+      <c r="N31" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.5527136788005009E-15</v>
+      </c>
+      <c r="O31" s="25">
+        <f t="shared" ca="1" si="5"/>
+        <v>19.2</v>
+      </c>
+      <c r="P31" s="25">
+        <f t="shared" ca="1" si="6"/>
+        <v>19.2</v>
+      </c>
+      <c r="Q31" s="25">
+        <f t="shared" ca="1" si="7"/>
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="F32" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="7" t="e">
+        <f ca="1">IF(TREND(OFFSET($K$27,TrendOffset+1,0,SprintsInTrend,1),OFFSET($A$27,TrendOffset+1,0,SprintsInTrend,1),#REF!)&lt;I32,I32,TREND(OFFSET($K$27,TrendOffset+1,0,SprintsInTrend,1),OFFSET($A$27,TrendOffset+1,0,SprintsInTrend,1),#REF!))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H32" s="7" t="e">
+        <f ca="1">IF(G32=L31,"",G32)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I32" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.5527136788005009E-15</v>
+      </c>
+      <c r="J32" s="25">
+        <f ca="1">D$9</f>
+        <v>19.2</v>
+      </c>
+      <c r="K32" s="25">
+        <f ca="1">D$10</f>
+        <v>19.2</v>
+      </c>
+      <c r="L32" s="25">
+        <f ca="1">D$11</f>
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="33" spans="6:12">
+      <c r="F33" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="7" t="e">
+        <f ca="1">IF(TREND(OFFSET($K$27,TrendOffset+1,0,SprintsInTrend,1),OFFSET($A$27,TrendOffset+1,0,SprintsInTrend,1),#REF!)&lt;I33,I33,TREND(OFFSET($K$27,TrendOffset+1,0,SprintsInTrend,1),OFFSET($A$27,TrendOffset+1,0,SprintsInTrend,1),#REF!))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H33" s="7" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I33" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.5527136788005009E-15</v>
+      </c>
+      <c r="J33" s="25">
+        <f ca="1">D$9</f>
+        <v>19.2</v>
+      </c>
+      <c r="K33" s="25">
+        <f ca="1">D$10</f>
+        <v>19.2</v>
+      </c>
+      <c r="L33" s="25">
+        <f ca="1">D$11</f>
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="34" spans="6:12">
+      <c r="F34" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="7" t="e">
+        <f ca="1">IF(TREND(OFFSET($K$27,TrendOffset+1,0,SprintsInTrend,1),OFFSET($A$27,TrendOffset+1,0,SprintsInTrend,1),#REF!)&lt;I34,I34,TREND(OFFSET($K$27,TrendOffset+1,0,SprintsInTrend,1),OFFSET($A$27,TrendOffset+1,0,SprintsInTrend,1),#REF!))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H34" s="7" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I34" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.5527136788005009E-15</v>
+      </c>
+      <c r="J34" s="25">
+        <f ca="1">D$9</f>
+        <v>19.2</v>
+      </c>
+      <c r="K34" s="25">
+        <f ca="1">D$10</f>
+        <v>19.2</v>
+      </c>
+      <c r="L34" s="25">
+        <f ca="1">D$11</f>
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="35" spans="6:12">
+      <c r="F35" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="7" t="e">
+        <f ca="1">IF(TREND(OFFSET($K$27,TrendOffset+1,0,SprintsInTrend,1),OFFSET($A$27,TrendOffset+1,0,SprintsInTrend,1),#REF!)&lt;I35,I35,TREND(OFFSET($K$27,TrendOffset+1,0,SprintsInTrend,1),OFFSET($A$27,TrendOffset+1,0,SprintsInTrend,1),#REF!))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H35" s="7" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I35" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.5527136788005009E-15</v>
+      </c>
+      <c r="J35" s="25">
+        <f ca="1">D$9</f>
+        <v>19.2</v>
+      </c>
+      <c r="K35" s="25">
+        <f ca="1">D$10</f>
+        <v>19.2</v>
+      </c>
+      <c r="L35" s="25">
+        <f ca="1">D$11</f>
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="36" spans="6:12">
+      <c r="F36" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="7" t="e">
+        <f ca="1">IF(TREND(OFFSET($K$27,TrendOffset+1,0,SprintsInTrend,1),OFFSET($A$27,TrendOffset+1,0,SprintsInTrend,1),#REF!)&lt;I36,I36,TREND(OFFSET($K$27,TrendOffset+1,0,SprintsInTrend,1),OFFSET($A$27,TrendOffset+1,0,SprintsInTrend,1),#REF!))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H36" s="7" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I36" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.5527136788005009E-15</v>
+      </c>
+      <c r="J36" s="25">
+        <f ca="1">D$9</f>
+        <v>19.2</v>
+      </c>
+      <c r="K36" s="25">
+        <f ca="1">D$10</f>
+        <v>19.2</v>
+      </c>
+      <c r="L36" s="25">
+        <f ca="1">D$11</f>
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="37" spans="6:12">
+      <c r="F37" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="7" t="e">
+        <f ca="1">IF(TREND(OFFSET($K$27,TrendOffset+1,0,SprintsInTrend,1),OFFSET($A$27,TrendOffset+1,0,SprintsInTrend,1),#REF!)&lt;I37,I37,TREND(OFFSET($K$27,TrendOffset+1,0,SprintsInTrend,1),OFFSET($A$27,TrendOffset+1,0,SprintsInTrend,1),#REF!))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H37" s="7" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I37" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.5527136788005009E-15</v>
+      </c>
+      <c r="J37" s="25">
+        <f ca="1">D$9</f>
+        <v>19.2</v>
+      </c>
+      <c r="K37" s="25">
+        <f ca="1">D$10</f>
+        <v>19.2</v>
+      </c>
+      <c r="L37" s="25">
+        <f ca="1">D$11</f>
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="38" spans="6:12">
+      <c r="F38" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="7" t="e">
+        <f ca="1">IF(TREND(OFFSET($K$27,TrendOffset+1,0,SprintsInTrend,1),OFFSET($A$27,TrendOffset+1,0,SprintsInTrend,1),#REF!)&lt;I38,I38,TREND(OFFSET($K$27,TrendOffset+1,0,SprintsInTrend,1),OFFSET($A$27,TrendOffset+1,0,SprintsInTrend,1),#REF!))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H38" s="7" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I38" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.5527136788005009E-15</v>
+      </c>
+      <c r="J38" s="25">
+        <f ca="1">D$9</f>
+        <v>19.2</v>
+      </c>
+      <c r="K38" s="25">
+        <f ca="1">D$10</f>
+        <v>19.2</v>
+      </c>
+      <c r="L38" s="25">
+        <f ca="1">D$11</f>
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="39" spans="6:12">
+      <c r="F39" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="7" t="e">
+        <f ca="1">IF(TREND(OFFSET($K$27,TrendOffset+1,0,SprintsInTrend,1),OFFSET($A$27,TrendOffset+1,0,SprintsInTrend,1),#REF!)&lt;I39,I39,TREND(OFFSET($K$27,TrendOffset+1,0,SprintsInTrend,1),OFFSET($A$27,TrendOffset+1,0,SprintsInTrend,1),#REF!))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H39" s="7" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I39" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.5527136788005009E-15</v>
+      </c>
+      <c r="J39" s="25">
+        <f ca="1">D$9</f>
+        <v>19.2</v>
+      </c>
+      <c r="K39" s="25">
+        <f ca="1">D$10</f>
+        <v>19.2</v>
+      </c>
+      <c r="L39" s="25">
+        <f ca="1">D$11</f>
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="40" spans="6:12">
+      <c r="F40" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G40" s="7" t="e">
+        <f ca="1">IF(TREND(OFFSET($K$27,TrendOffset+1,0,SprintsInTrend,1),OFFSET($A$27,TrendOffset+1,0,SprintsInTrend,1),#REF!)&lt;I40,I40,TREND(OFFSET($K$27,TrendOffset+1,0,SprintsInTrend,1),OFFSET($A$27,TrendOffset+1,0,SprintsInTrend,1),#REF!))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H40" s="7" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I40" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.5527136788005009E-15</v>
+      </c>
+      <c r="J40" s="25">
+        <f ca="1">D$9</f>
+        <v>19.2</v>
+      </c>
+      <c r="K40" s="25">
+        <f ca="1">D$10</f>
+        <v>19.2</v>
+      </c>
+      <c r="L40" s="25">
+        <f ca="1">D$11</f>
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="41" spans="6:12">
+      <c r="F41" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="7" t="e">
+        <f ca="1">IF(TREND(OFFSET($K$27,TrendOffset+1,0,SprintsInTrend,1),OFFSET($A$27,TrendOffset+1,0,SprintsInTrend,1),#REF!)&lt;I41,I41,TREND(OFFSET($K$27,TrendOffset+1,0,SprintsInTrend,1),OFFSET($A$27,TrendOffset+1,0,SprintsInTrend,1),#REF!))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H41" s="7" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I41" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.5527136788005009E-15</v>
+      </c>
+      <c r="J41" s="25">
+        <f ca="1">D$9</f>
+        <v>19.2</v>
+      </c>
+      <c r="K41" s="25">
+        <f ca="1">D$10</f>
+        <v>19.2</v>
+      </c>
+      <c r="L41" s="25">
+        <f ca="1">D$11</f>
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="42" spans="6:12">
+      <c r="F42" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="7" t="e">
+        <f ca="1">IF(TREND(OFFSET($K$27,TrendOffset+1,0,SprintsInTrend,1),OFFSET($A$27,TrendOffset+1,0,SprintsInTrend,1),#REF!)&lt;I42,I42,TREND(OFFSET($K$27,TrendOffset+1,0,SprintsInTrend,1),OFFSET($A$27,TrendOffset+1,0,SprintsInTrend,1),#REF!))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H42" s="7" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I42" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.5527136788005009E-15</v>
+      </c>
+      <c r="J42" s="25">
+        <f ca="1">D$9</f>
+        <v>19.2</v>
+      </c>
+      <c r="K42" s="25">
+        <f ca="1">D$10</f>
+        <v>19.2</v>
+      </c>
+      <c r="L42" s="25">
+        <f ca="1">D$11</f>
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="43" spans="6:12">
+      <c r="F43" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G43" s="7" t="e">
+        <f ca="1">IF(TREND(OFFSET($K$27,TrendOffset+1,0,SprintsInTrend,1),OFFSET($A$27,TrendOffset+1,0,SprintsInTrend,1),#REF!)&lt;I43,I43,TREND(OFFSET($K$27,TrendOffset+1,0,SprintsInTrend,1),OFFSET($A$27,TrendOffset+1,0,SprintsInTrend,1),#REF!))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H43" s="7" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I43" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.5527136788005009E-15</v>
+      </c>
+      <c r="J43" s="25">
+        <f ca="1">D$9</f>
+        <v>19.2</v>
+      </c>
+      <c r="K43" s="25">
+        <f ca="1">D$10</f>
+        <v>19.2</v>
+      </c>
+      <c r="L43" s="25">
+        <f ca="1">D$11</f>
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="44" spans="6:12">
+      <c r="F44" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G44" s="7" t="e">
+        <f ca="1">IF(TREND(OFFSET($K$27,TrendOffset+1,0,SprintsInTrend,1),OFFSET($A$27,TrendOffset+1,0,SprintsInTrend,1),#REF!)&lt;I44,I44,TREND(OFFSET($K$27,TrendOffset+1,0,SprintsInTrend,1),OFFSET($A$27,TrendOffset+1,0,SprintsInTrend,1),#REF!))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H44" s="7" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I44" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.5527136788005009E-15</v>
+      </c>
+      <c r="J44" s="25">
+        <f ca="1">D$9</f>
+        <v>19.2</v>
+      </c>
+      <c r="K44" s="25">
+        <f ca="1">D$10</f>
+        <v>19.2</v>
+      </c>
+      <c r="L44" s="25">
+        <f ca="1">D$11</f>
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="45" spans="6:12">
+      <c r="F45" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G45" s="7" t="e">
+        <f ca="1">IF(TREND(OFFSET($K$27,TrendOffset+1,0,SprintsInTrend,1),OFFSET($A$27,TrendOffset+1,0,SprintsInTrend,1),#REF!)&lt;I45,I45,TREND(OFFSET($K$27,TrendOffset+1,0,SprintsInTrend,1),OFFSET($A$27,TrendOffset+1,0,SprintsInTrend,1),#REF!))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H45" s="7" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I45" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.5527136788005009E-15</v>
+      </c>
+      <c r="J45" s="25">
+        <f ca="1">D$9</f>
+        <v>19.2</v>
+      </c>
+      <c r="K45" s="25">
+        <f ca="1">D$10</f>
+        <v>19.2</v>
+      </c>
+      <c r="L45" s="25">
+        <f ca="1">D$11</f>
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="46" spans="6:12">
+      <c r="F46" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G46" s="7" t="e">
+        <f ca="1">IF(TREND(OFFSET($K$27,TrendOffset+1,0,SprintsInTrend,1),OFFSET($A$27,TrendOffset+1,0,SprintsInTrend,1),#REF!)&lt;I46,I46,TREND(OFFSET($K$27,TrendOffset+1,0,SprintsInTrend,1),OFFSET($A$27,TrendOffset+1,0,SprintsInTrend,1),#REF!))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H46" s="7" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I46" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.5527136788005009E-15</v>
+      </c>
+      <c r="J46" s="25">
+        <f ca="1">D$9</f>
+        <v>19.2</v>
+      </c>
+      <c r="K46" s="25">
+        <f ca="1">D$10</f>
+        <v>19.2</v>
+      </c>
+      <c r="L46" s="25">
+        <f ca="1">D$11</f>
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="47" spans="6:12">
+      <c r="F47" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G47" s="7" t="e">
+        <f ca="1">IF(TREND(OFFSET($K$27,TrendOffset+1,0,SprintsInTrend,1),OFFSET($A$27,TrendOffset+1,0,SprintsInTrend,1),#REF!)&lt;I47,I47,TREND(OFFSET($K$27,TrendOffset+1,0,SprintsInTrend,1),OFFSET($A$27,TrendOffset+1,0,SprintsInTrend,1),#REF!))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H47" s="7" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I47" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.5527136788005009E-15</v>
+      </c>
+      <c r="J47" s="25">
+        <f ca="1">D$9</f>
+        <v>19.2</v>
+      </c>
+      <c r="K47" s="25">
+        <f ca="1">D$10</f>
+        <v>19.2</v>
+      </c>
+      <c r="L47" s="25">
+        <f ca="1">D$11</f>
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="48" spans="6:12">
+      <c r="F48" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G48" s="7" t="e">
+        <f ca="1">IF(TREND(OFFSET($K$27,TrendOffset+1,0,SprintsInTrend,1),OFFSET($A$27,TrendOffset+1,0,SprintsInTrend,1),#REF!)&lt;I48,I48,TREND(OFFSET($K$27,TrendOffset+1,0,SprintsInTrend,1),OFFSET($A$27,TrendOffset+1,0,SprintsInTrend,1),#REF!))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H48" s="7" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I48" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.5527136788005009E-15</v>
+      </c>
+      <c r="J48" s="25">
+        <f ca="1">D$9</f>
+        <v>19.2</v>
+      </c>
+      <c r="K48" s="25">
+        <f ca="1">D$10</f>
+        <v>19.2</v>
+      </c>
+      <c r="L48" s="25">
+        <f ca="1">D$11</f>
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="49" spans="6:12">
+      <c r="F49" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G49" s="7" t="e">
+        <f ca="1">IF(TREND(OFFSET($K$27,TrendOffset+1,0,SprintsInTrend,1),OFFSET($A$27,TrendOffset+1,0,SprintsInTrend,1),#REF!)&lt;I49,I49,TREND(OFFSET($K$27,TrendOffset+1,0,SprintsInTrend,1),OFFSET($A$27,TrendOffset+1,0,SprintsInTrend,1),#REF!))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H49" s="7" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I49" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.5527136788005009E-15</v>
+      </c>
+      <c r="J49" s="25">
+        <f ca="1">D$9</f>
+        <v>19.2</v>
+      </c>
+      <c r="K49" s="25">
+        <f ca="1">D$10</f>
+        <v>19.2</v>
+      </c>
+      <c r="L49" s="25">
+        <f ca="1">D$11</f>
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="50" spans="6:12">
+      <c r="F50" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G50" s="7" t="e">
+        <f ca="1">IF(TREND(OFFSET($K$27,TrendOffset+1,0,SprintsInTrend,1),OFFSET($A$27,TrendOffset+1,0,SprintsInTrend,1),#REF!)&lt;I50,I50,TREND(OFFSET($K$27,TrendOffset+1,0,SprintsInTrend,1),OFFSET($A$27,TrendOffset+1,0,SprintsInTrend,1),#REF!))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H50" s="7" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I50" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.5527136788005009E-15</v>
+      </c>
+      <c r="J50" s="25">
+        <f ca="1">D$9</f>
+        <v>19.2</v>
+      </c>
+      <c r="K50" s="25">
+        <f ca="1">D$10</f>
+        <v>19.2</v>
+      </c>
+      <c r="L50" s="25">
+        <f ca="1">D$11</f>
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="51" spans="6:12">
+      <c r="F51" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G51" s="7" t="e">
+        <f ca="1">IF(TREND(OFFSET($K$27,TrendOffset+1,0,SprintsInTrend,1),OFFSET($A$27,TrendOffset+1,0,SprintsInTrend,1),#REF!)&lt;I51,I51,TREND(OFFSET($K$27,TrendOffset+1,0,SprintsInTrend,1),OFFSET($A$27,TrendOffset+1,0,SprintsInTrend,1),#REF!))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H51" s="7" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#REF!</v>
+      </c>
+      <c r="I51" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.5527136788005009E-15</v>
+      </c>
+      <c r="J51" s="25">
+        <f ca="1">D$9</f>
+        <v>19.2</v>
+      </c>
+      <c r="K51" s="25">
+        <f ca="1">D$10</f>
+        <v>19.2</v>
+      </c>
+      <c r="L51" s="25">
+        <f ca="1">D$11</f>
+        <v>19.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="F26:N26"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="G27:H27"/>
+  </mergeCells>
+  <conditionalFormatting sqref="K27:N27 A27:G27 F26 I27 O26:O27 P27:Q27">
+    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
+      <formula>$D26="Done"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>$D26="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>$D26="Removed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>